--- a/Allergiebäume.xlsx
+++ b/Allergiebäume.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-2940" yWindow="0" windowWidth="20240" windowHeight="11740" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="20860" windowHeight="13560" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -19,160 +19,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="27">
   <si>
     <t>Baumarten</t>
   </si>
   <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>apr</t>
+  </si>
+  <si>
+    <t>mai</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
+    <t>aug</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>okt</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>dez</t>
+  </si>
+  <si>
+    <t>Birke</t>
+  </si>
+  <si>
     <t>grün</t>
   </si>
   <si>
     <t>gelb</t>
   </si>
   <si>
+    <t>rot</t>
+  </si>
+  <si>
     <t>orange</t>
   </si>
   <si>
-    <t>rot</t>
-  </si>
-  <si>
-    <t>Birke</t>
-  </si>
-  <si>
-    <t>aug, sept, okt, nov, dez, jan</t>
-  </si>
-  <si>
-    <t>feb,mar, jun, jul</t>
-  </si>
-  <si>
-    <t>mai</t>
-  </si>
-  <si>
-    <t>apr</t>
-  </si>
-  <si>
     <t>Buche</t>
   </si>
   <si>
-    <t>jul, aug, sept, okt, nov, dez, jan, feb</t>
-  </si>
-  <si>
-    <t>mar, jun</t>
-  </si>
-  <si>
     <t>Eiche</t>
   </si>
   <si>
-    <t>aug, sept, okt, nov, dez, jan, feb</t>
-  </si>
-  <si>
-    <t>mar, jun, jul</t>
-  </si>
-  <si>
     <t>Erle</t>
   </si>
   <si>
-    <t>jun, jul, aug, sept, okt, nov</t>
-  </si>
-  <si>
-    <t>dez, jan, mai</t>
-  </si>
-  <si>
-    <t>feb, apr</t>
-  </si>
-  <si>
-    <t>mar</t>
-  </si>
-  <si>
     <t>Esche</t>
   </si>
   <si>
-    <t>jul, aug, sept, okt, nov, dez, jan</t>
-  </si>
-  <si>
-    <t>feb, mar, jun</t>
-  </si>
-  <si>
-    <t>mai,</t>
-  </si>
-  <si>
     <t>Hainbuche</t>
   </si>
   <si>
     <t>Hasel</t>
   </si>
   <si>
-    <t>dez, jan, apr, mai</t>
-  </si>
-  <si>
-    <t>feb</t>
-  </si>
-  <si>
     <t>Kiefer</t>
   </si>
   <si>
-    <t>sept, okt, nov, dez, jan, feb, mar</t>
-  </si>
-  <si>
-    <t>apr, aug</t>
-  </si>
-  <si>
-    <t>jul</t>
-  </si>
-  <si>
-    <t>mai, jun</t>
-  </si>
-  <si>
     <t>Pappel</t>
   </si>
   <si>
-    <t>jul, aug, sept, okt, nov, dez, jan, jun</t>
-  </si>
-  <si>
-    <t>feb, mai</t>
-  </si>
-  <si>
-    <t>mar, apr</t>
-  </si>
-  <si>
     <t>Weide</t>
-  </si>
-  <si>
-    <t>jun, aug, sept, okt, nov, dez, jan</t>
-  </si>
-  <si>
-    <t>feb, jun</t>
-  </si>
-  <si>
-    <t>mar, mai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,53 +172,16 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFC0C0C0"/>
+        <color indexed="22"/>
       </left>
       <right style="medium">
-        <color rgb="FFC0C0C0"/>
+        <color indexed="22"/>
       </right>
       <top style="medium">
-        <color rgb="FFC0C0C0"/>
+        <color indexed="22"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFC0C0C0"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -236,18 +189,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -255,7 +214,7 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -334,7 +293,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -369,7 +327,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -580,210 +537,473 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1">
+    <row r="1" spans="1:13" ht="17" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
+    <row r="2" spans="1:13" ht="17" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" thickBot="1">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
+    <row r="3" spans="1:13" ht="17" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" thickBot="1">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
+    <row r="4" spans="1:13" ht="17" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17" thickBot="1">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:13" ht="17" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" thickBot="1">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:13" ht="17" thickBot="1">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17" thickBot="1">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17" thickBot="1">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17" thickBot="1">
+      <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" thickBot="1">
-      <c r="A7" s="3" t="s">
+    <row r="10" spans="1:13" ht="17" thickBot="1">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" thickBot="1">
-      <c r="A8" s="3" t="s">
+    <row r="11" spans="1:13" ht="17" thickBot="1">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" thickBot="1">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" thickBot="1">
-      <c r="A10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" thickBot="1">
-      <c r="A11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
